--- a/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
+++ b/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\excel_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\МАКРОСЫ\Заполнение служебной записки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A45989-A68C-4B63-AFC0-C41BA5892F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A1836-F839-471F-AFDD-85BD590F0AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">зав. ЦА </t>
   </si>
@@ -74,13 +74,19 @@
   </si>
   <si>
     <t>330515/1</t>
+  </si>
+  <si>
+    <t>302114.175</t>
+  </si>
+  <si>
+    <t>Трубопровод</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +155,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,14 +292,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -277,15 +311,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,28 +605,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="8" style="17" customWidth="1"/>
-    <col min="7" max="7" width="7" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8" style="20" customWidth="1"/>
+    <col min="7" max="7" width="7" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="13" style="21" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="13" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -647,15 +680,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -664,13 +697,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -679,13 +712,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -694,16 +727,16 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="16"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
@@ -726,10 +759,10 @@
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
@@ -745,14 +778,14 @@
       <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -801,7 +834,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -817,46 +850,52 @@
       <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
+++ b/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28830" windowHeight="21000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -259,12 +259,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -281,23 +280,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,9 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -329,9 +337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,26 +689,27 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6.85546875" customWidth="1" style="17" min="1" max="1"/>
-    <col width="16.42578125" customWidth="1" style="29" min="2" max="2"/>
-    <col width="11" customWidth="1" style="29" min="3" max="3"/>
-    <col width="22.140625" customWidth="1" style="29" min="4" max="4"/>
-    <col width="9.5703125" customWidth="1" style="29" min="5" max="5"/>
-    <col width="8" customWidth="1" style="29" min="6" max="6"/>
-    <col width="7" customWidth="1" style="29" min="7" max="7"/>
-    <col width="8.28515625" customWidth="1" style="29" min="8" max="8"/>
-    <col width="14.42578125" customWidth="1" style="30" min="10" max="10"/>
-    <col width="29.5703125" customWidth="1" style="29" min="11" max="11"/>
-    <col width="6.5703125" customWidth="1" style="29" min="12" max="12"/>
-    <col width="13" customWidth="1" style="16" min="15" max="15"/>
+    <col width="6.85546875" customWidth="1" style="12" min="1" max="1"/>
+    <col width="16.42578125" customWidth="1" style="31" min="2" max="2"/>
+    <col width="11" customWidth="1" style="31" min="3" max="3"/>
+    <col width="22.140625" customWidth="1" style="31" min="4" max="4"/>
+    <col width="9.5703125" customWidth="1" style="31" min="5" max="5"/>
+    <col width="8" customWidth="1" style="31" min="6" max="6"/>
+    <col width="7" customWidth="1" style="31" min="7" max="7"/>
+    <col width="8.28515625" customWidth="1" style="31" min="8" max="8"/>
+    <col width="14.42578125" customWidth="1" style="32" min="10" max="10"/>
+    <col width="29.5703125" customWidth="1" style="31" min="11" max="11"/>
+    <col width="6.5703125" customWidth="1" style="31" min="12" max="12"/>
+    <col width="9.140625" customWidth="1" style="20" min="13" max="13"/>
+    <col width="13" customWidth="1" style="11" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="18">
+    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="13">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
@@ -716,9 +722,9 @@
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" s="29">
+      <c r="M1" s="15" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="31">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
@@ -735,9 +741,9 @@
         </is>
       </c>
       <c r="L2" s="1" t="n"/>
-      <c r="M2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="29">
+      <c r="M2" s="16" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="31">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
@@ -754,51 +760,51 @@
         </is>
       </c>
       <c r="L3" s="3" t="n"/>
-      <c r="M3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="29">
+      <c r="M3" s="17" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="31">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
-      <c r="D4" s="28" t="inlineStr">
+      <c r="D4" s="30" t="inlineStr">
         <is>
           <t>Служебная записка</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="29">
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="18" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="31">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="29">
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="18" t="n"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="31">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="33" customHeight="1" s="29">
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="18" t="n"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" s="31">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
-      <c r="D7" s="28" t="inlineStr">
+      <c r="D7" s="30" t="inlineStr">
         <is>
           <t>на обработку и размножение чертежей</t>
         </is>
       </c>
-      <c r="K7" s="28" t="n"/>
-      <c r="L7" s="6" t="n"/>
-      <c r="M7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="29">
+      <c r="K7" s="30" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="31">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
@@ -811,233 +817,336 @@
       <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="n"/>
       <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="47.25" customHeight="1" s="29">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="M8" s="19" t="n"/>
+    </row>
+    <row r="9" ht="47.25" customHeight="1" s="31">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B9" s="31" t="inlineStr">
+      <c r="B9" s="33" t="inlineStr">
         <is>
           <t>№Сл.зап.,дата</t>
         </is>
       </c>
-      <c r="C9" s="32" t="n"/>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="C9" s="34" t="n"/>
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Тип тр-ра</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>№ з/з</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>КТ</t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>Инв. №</t>
         </is>
       </c>
-      <c r="I9" s="31" t="inlineStr">
+      <c r="I9" s="33" t="inlineStr">
         <is>
           <t>Чертежное обозначение</t>
         </is>
       </c>
-      <c r="J9" s="32" t="n"/>
-      <c r="K9" s="12" t="inlineStr">
+      <c r="J9" s="34" t="n"/>
+      <c r="K9" s="21" t="inlineStr">
         <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="L9" s="31" t="inlineStr">
+      <c r="L9" s="33" t="inlineStr">
         <is>
           <t>К-во листов</t>
         </is>
       </c>
-      <c r="M9" s="9" t="inlineStr">
+      <c r="M9" s="8" t="inlineStr">
         <is>
           <t>Формат</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="10">
-      <c r="A10" s="11" t="n">
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="9">
+      <c r="A10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="8" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="10">
-      <c r="A11" s="33" t="n">
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="9">
+      <c r="A11" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>52НН/18/6-646</t>
         </is>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="22">
         <f>TODAY()</f>
         <v/>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>ЭОДЦН-8200/10-У3</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
         <is>
           <t>330515/1</t>
         </is>
       </c>
-      <c r="F11" s="34" t="n"/>
-      <c r="G11" s="34" t="n"/>
-      <c r="H11" s="34" t="n"/>
-      <c r="I11" s="35" t="n"/>
-      <c r="J11" s="33" t="inlineStr">
-        <is>
-          <t>302313.432СБ</t>
-        </is>
-      </c>
-      <c r="K11" s="33" t="inlineStr">
-        <is>
-          <t>Трубопровод</t>
-        </is>
-      </c>
-      <c r="L11" s="33" t="n">
+      <c r="F11" s="36" t="n"/>
+      <c r="G11" s="36" t="n"/>
+      <c r="H11" s="36" t="n"/>
+      <c r="I11" s="35" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J11" s="35" t="inlineStr">
+        <is>
+          <t>301341.001СБ</t>
+        </is>
+      </c>
+      <c r="K11" s="35" t="inlineStr">
+        <is>
+          <t>Коробка</t>
+        </is>
+      </c>
+      <c r="L11" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="36" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="33" t="n">
+      <c r="M11" s="37" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="31">
+      <c r="A12" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="n"/>
-      <c r="C12" s="37" t="n"/>
-      <c r="D12" s="37" t="n"/>
-      <c r="E12" s="37" t="n"/>
-      <c r="F12" s="38" t="n"/>
-      <c r="G12" s="38" t="n"/>
-      <c r="H12" s="38" t="n"/>
-      <c r="I12" s="38" t="n"/>
-      <c r="J12" s="33" t="inlineStr">
-        <is>
-          <t>687455.474</t>
-        </is>
-      </c>
-      <c r="K12" s="33" t="inlineStr">
-        <is>
-          <t>Монтаж</t>
-        </is>
-      </c>
-      <c r="L12" s="33" t="n">
+      <c r="B12" s="38" t="n"/>
+      <c r="C12" s="38" t="n"/>
+      <c r="D12" s="38" t="n"/>
+      <c r="E12" s="38" t="n"/>
+      <c r="F12" s="39" t="n"/>
+      <c r="G12" s="39" t="n"/>
+      <c r="H12" s="39" t="n"/>
+      <c r="I12" s="35" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J12" s="35" t="inlineStr">
+        <is>
+          <t>301341.001СБ</t>
+        </is>
+      </c>
+      <c r="K12" s="35" t="inlineStr">
+        <is>
+          <t>Коробка</t>
+        </is>
+      </c>
+      <c r="L12" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="39" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="38" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="39" t="n"/>
-      <c r="C13" s="39" t="n"/>
-      <c r="D13" s="39" t="n"/>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="38" t="n"/>
-      <c r="G13" s="38" t="n"/>
-      <c r="H13" s="38" t="n"/>
-      <c r="I13" s="38" t="n"/>
-      <c r="J13" s="33" t="inlineStr">
-        <is>
-          <t>687455.474СБ</t>
-        </is>
-      </c>
-      <c r="K13" s="33" t="inlineStr">
-        <is>
-          <t>Монтаж</t>
-        </is>
-      </c>
-      <c r="L13" s="33" t="n">
+      <c r="B13" s="38" t="n"/>
+      <c r="C13" s="38" t="n"/>
+      <c r="D13" s="38" t="n"/>
+      <c r="E13" s="38" t="n"/>
+      <c r="F13" s="39" t="n"/>
+      <c r="G13" s="39" t="n"/>
+      <c r="H13" s="39" t="n"/>
+      <c r="I13" s="35" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J13" s="35" t="inlineStr">
+        <is>
+          <t>305136.005</t>
+        </is>
+      </c>
+      <c r="K13" s="35" t="inlineStr">
+        <is>
+          <t>Корпус</t>
+        </is>
+      </c>
+      <c r="L13" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="38" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="29"/>
-    <row r="16"/>
-    <row r="17" ht="15.75" customHeight="1" s="29"/>
-    <row r="18" ht="15.75" customHeight="1" s="29"/>
+      <c r="M13" s="39" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="38" t="n"/>
+      <c r="C14" s="38" t="n"/>
+      <c r="D14" s="38" t="n"/>
+      <c r="E14" s="38" t="n"/>
+      <c r="F14" s="39" t="n"/>
+      <c r="G14" s="39" t="n"/>
+      <c r="H14" s="39" t="n"/>
+      <c r="I14" s="35" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J14" s="35" t="inlineStr">
+        <is>
+          <t>305136.005</t>
+        </is>
+      </c>
+      <c r="K14" s="35" t="inlineStr">
+        <is>
+          <t>Корпус</t>
+        </is>
+      </c>
+      <c r="L14" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="39" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="31">
+      <c r="A15" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="38" t="n"/>
+      <c r="C15" s="38" t="n"/>
+      <c r="D15" s="38" t="n"/>
+      <c r="E15" s="38" t="n"/>
+      <c r="F15" s="39" t="n"/>
+      <c r="G15" s="39" t="n"/>
+      <c r="H15" s="39" t="n"/>
+      <c r="I15" s="35" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J15" s="35" t="inlineStr">
+        <is>
+          <t>305136.005СБ</t>
+        </is>
+      </c>
+      <c r="K15" s="35" t="inlineStr">
+        <is>
+          <t>Корпус</t>
+        </is>
+      </c>
+      <c r="L15" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="39" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="40" t="n"/>
+      <c r="C16" s="40" t="n"/>
+      <c r="D16" s="40" t="n"/>
+      <c r="E16" s="40" t="n"/>
+      <c r="F16" s="39" t="n"/>
+      <c r="G16" s="39" t="n"/>
+      <c r="H16" s="39" t="n"/>
+      <c r="I16" s="35" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J16" s="35" t="inlineStr">
+        <is>
+          <t>305136.005СБ</t>
+        </is>
+      </c>
+      <c r="K16" s="35" t="inlineStr">
+        <is>
+          <t>Корпус</t>
+        </is>
+      </c>
+      <c r="L16" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="39" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="31"/>
+    <row r="18" ht="15.75" customHeight="1" s="31"/>
     <row r="19"/>
-    <row r="20" ht="15.75" customHeight="1" s="29"/>
-    <row r="21" ht="15.75" customHeight="1" s="29">
-      <c r="D21" s="10" t="inlineStr">
+    <row r="20"/>
+    <row r="21">
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <t>Руководитель группы</t>
         </is>
       </c>
-      <c r="E21" s="19" t="n"/>
-      <c r="F21" s="19" t="n"/>
-      <c r="G21" s="19" t="n"/>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="9" t="inlineStr">
         <is>
           <t>Р.С. Уфрутов</t>
         </is>
       </c>
-      <c r="I21" s="19" t="n"/>
+      <c r="I21" s="14" t="n"/>
     </row>
     <row r="22">
-      <c r="D22" s="19" t="n"/>
-      <c r="E22" s="19" t="n"/>
-      <c r="F22" s="19" t="n"/>
-      <c r="G22" s="19" t="n"/>
-      <c r="H22" s="19" t="n"/>
-      <c r="I22" s="19" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="14" t="n"/>
+      <c r="H22" s="14" t="n"/>
+      <c r="I22" s="14" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1056,7 +1165,7 @@
       <c r="J23" s="1" t="n"/>
       <c r="K23" s="1" t="n"/>
       <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
+      <c r="M23" s="15" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1071,7 +1180,7 @@
       <c r="J24" s="1" t="n"/>
       <c r="K24" s="1" t="n"/>
       <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
+      <c r="M24" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1079,10 +1188,10 @@
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="55"/>

--- a/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
+++ b/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -322,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -337,12 +340,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -686,25 +704,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.85546875" customWidth="1" style="12" min="1" max="1"/>
-    <col width="16.42578125" customWidth="1" style="31" min="2" max="2"/>
-    <col width="11" customWidth="1" style="31" min="3" max="3"/>
-    <col width="22.140625" customWidth="1" style="31" min="4" max="4"/>
-    <col width="9.5703125" customWidth="1" style="31" min="5" max="5"/>
-    <col width="8" customWidth="1" style="31" min="6" max="6"/>
-    <col width="7" customWidth="1" style="31" min="7" max="7"/>
-    <col width="8.28515625" customWidth="1" style="31" min="8" max="8"/>
-    <col width="14.42578125" customWidth="1" style="32" min="10" max="10"/>
-    <col width="29.5703125" customWidth="1" style="31" min="11" max="11"/>
-    <col width="6.5703125" customWidth="1" style="31" min="12" max="12"/>
+    <col width="16.42578125" customWidth="1" style="32" min="2" max="2"/>
+    <col width="11" customWidth="1" style="32" min="3" max="3"/>
+    <col width="22.140625" customWidth="1" style="32" min="4" max="4"/>
+    <col width="9.5703125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="8" customWidth="1" style="32" min="6" max="6"/>
+    <col width="7" customWidth="1" style="32" min="7" max="7"/>
+    <col width="8.28515625" customWidth="1" style="32" min="8" max="8"/>
+    <col width="14.42578125" customWidth="1" style="33" min="10" max="10"/>
+    <col width="29.5703125" customWidth="1" style="32" min="11" max="11"/>
+    <col width="6.5703125" customWidth="1" style="32" min="12" max="12"/>
     <col width="9.140625" customWidth="1" style="20" min="13" max="13"/>
     <col width="13" customWidth="1" style="11" min="15" max="15"/>
   </cols>
@@ -724,7 +742,7 @@
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="15" t="n"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="31">
+    <row r="2" ht="18.75" customHeight="1" s="32">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
@@ -743,7 +761,7 @@
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="16" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="31">
+    <row r="3" ht="18.75" customHeight="1" s="32">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
@@ -762,11 +780,11 @@
       <c r="L3" s="3" t="n"/>
       <c r="M3" s="17" t="n"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="31">
+    <row r="4" ht="15.75" customHeight="1" s="32">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="3" t="n"/>
       <c r="C4" s="3" t="n"/>
-      <c r="D4" s="30" t="inlineStr">
+      <c r="D4" s="31" t="inlineStr">
         <is>
           <t>Служебная записка</t>
         </is>
@@ -775,7 +793,7 @@
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="18" t="n"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="31">
+    <row r="5" ht="15.75" customHeight="1" s="32">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="n"/>
       <c r="C5" s="3" t="n"/>
@@ -783,7 +801,7 @@
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="18" t="n"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="31">
+    <row r="6" ht="15.75" customHeight="1" s="32">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
@@ -791,20 +809,20 @@
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="18" t="n"/>
     </row>
-    <row r="7" ht="33" customHeight="1" s="31">
+    <row r="7" ht="33" customHeight="1" s="32">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
-      <c r="D7" s="30" t="inlineStr">
+      <c r="D7" s="31" t="inlineStr">
         <is>
           <t>на обработку и размножение чертежей</t>
         </is>
       </c>
-      <c r="K7" s="30" t="n"/>
+      <c r="K7" s="31" t="n"/>
       <c r="L7" s="5" t="n"/>
       <c r="M7" s="5" t="n"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="31">
+    <row r="8" ht="15.75" customHeight="1" s="32">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
@@ -819,18 +837,18 @@
       <c r="L8" s="3" t="n"/>
       <c r="M8" s="19" t="n"/>
     </row>
-    <row r="9" ht="47.25" customHeight="1" s="31">
+    <row r="9" ht="47.25" customHeight="1" s="32">
       <c r="A9" s="6" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B9" s="33" t="inlineStr">
+      <c r="B9" s="34" t="inlineStr">
         <is>
           <t>№Сл.зап.,дата</t>
         </is>
       </c>
-      <c r="C9" s="34" t="n"/>
+      <c r="C9" s="35" t="n"/>
       <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Тип тр-ра</t>
@@ -856,18 +874,18 @@
           <t>Инв. №</t>
         </is>
       </c>
-      <c r="I9" s="33" t="inlineStr">
+      <c r="I9" s="34" t="inlineStr">
         <is>
           <t>Чертежное обозначение</t>
         </is>
       </c>
-      <c r="J9" s="34" t="n"/>
+      <c r="J9" s="35" t="n"/>
       <c r="K9" s="21" t="inlineStr">
         <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="L9" s="33" t="inlineStr">
+      <c r="L9" s="34" t="inlineStr">
         <is>
           <t>К-во листов</t>
         </is>
@@ -920,7 +938,7 @@
       </c>
     </row>
     <row r="11" ht="15" customFormat="1" customHeight="1" s="9">
-      <c r="A11" s="35" t="n">
+      <c r="A11" s="45" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -932,266 +950,365 @@
         <f>TODAY()</f>
         <v/>
       </c>
-      <c r="D11" s="33" t="inlineStr">
+      <c r="D11" s="34" t="inlineStr">
         <is>
           <t>ЭОДЦН-8200/10-У3</t>
         </is>
       </c>
-      <c r="E11" s="33" t="inlineStr">
+      <c r="E11" s="34" t="inlineStr">
         <is>
           <t>330515/1</t>
         </is>
       </c>
-      <c r="F11" s="36" t="n"/>
-      <c r="G11" s="36" t="n"/>
-      <c r="H11" s="36" t="n"/>
-      <c r="I11" s="35" t="inlineStr">
+      <c r="F11" s="37" t="n"/>
+      <c r="G11" s="37" t="n"/>
+      <c r="H11" s="37" t="n"/>
+      <c r="I11" s="45" t="inlineStr">
         <is>
           <t>БТЛИ.</t>
         </is>
       </c>
-      <c r="J11" s="35" t="inlineStr">
-        <is>
-          <t>301341.001СБ</t>
-        </is>
-      </c>
-      <c r="K11" s="35" t="inlineStr">
-        <is>
-          <t>Коробка</t>
-        </is>
-      </c>
-      <c r="L11" s="35" t="n">
+      <c r="J11" s="45" t="inlineStr">
+        <is>
+          <t>685631.001 СБ</t>
+        </is>
+      </c>
+      <c r="K11" s="45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Перемычка заземления
+</t>
+        </is>
+      </c>
+      <c r="L11" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="37" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="31">
-      <c r="A12" s="35" t="n">
+      <c r="M11" s="45" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="38" t="n"/>
-      <c r="C12" s="38" t="n"/>
-      <c r="D12" s="38" t="n"/>
-      <c r="E12" s="38" t="n"/>
-      <c r="F12" s="39" t="n"/>
-      <c r="G12" s="39" t="n"/>
-      <c r="H12" s="39" t="n"/>
-      <c r="I12" s="35" t="inlineStr">
+      <c r="B12" s="41" t="n"/>
+      <c r="C12" s="41" t="n"/>
+      <c r="D12" s="41" t="n"/>
+      <c r="E12" s="41" t="n"/>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="40" t="n"/>
+      <c r="H12" s="40" t="n"/>
+      <c r="I12" s="45" t="inlineStr">
         <is>
           <t>БТЛИ.</t>
         </is>
       </c>
-      <c r="J12" s="35" t="inlineStr">
-        <is>
-          <t>301341.001СБ</t>
-        </is>
-      </c>
-      <c r="K12" s="35" t="inlineStr">
-        <is>
-          <t>Коробка</t>
-        </is>
-      </c>
-      <c r="L12" s="35" t="n">
+      <c r="J12" s="45" t="inlineStr">
+        <is>
+          <t>687321.338 СБ</t>
+        </is>
+      </c>
+      <c r="K12" s="45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Монтаж контрольных
+кабелей
+</t>
+        </is>
+      </c>
+      <c r="L12" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" s="45" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="41" t="n"/>
+      <c r="C13" s="41" t="n"/>
+      <c r="D13" s="41" t="n"/>
+      <c r="E13" s="41" t="n"/>
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="40" t="n"/>
+      <c r="H13" s="40" t="n"/>
+      <c r="I13" s="45" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J13" s="45" t="inlineStr">
+        <is>
+          <t>745391.033</t>
+        </is>
+      </c>
+      <c r="K13" s="45" t="inlineStr">
+        <is>
+          <t>Скоба</t>
+        </is>
+      </c>
+      <c r="L13" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="39" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="38" t="n"/>
-      <c r="C13" s="38" t="n"/>
-      <c r="D13" s="38" t="n"/>
-      <c r="E13" s="38" t="n"/>
-      <c r="F13" s="39" t="n"/>
-      <c r="G13" s="39" t="n"/>
-      <c r="H13" s="39" t="n"/>
-      <c r="I13" s="35" t="inlineStr">
+      <c r="M13" s="45" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41" t="n"/>
+      <c r="C14" s="41" t="n"/>
+      <c r="D14" s="41" t="n"/>
+      <c r="E14" s="41" t="n"/>
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="40" t="n"/>
+      <c r="H14" s="40" t="n"/>
+      <c r="I14" s="45" t="inlineStr">
         <is>
           <t>БТЛИ.</t>
         </is>
       </c>
-      <c r="J13" s="35" t="inlineStr">
-        <is>
-          <t>305136.005</t>
-        </is>
-      </c>
-      <c r="K13" s="35" t="inlineStr">
-        <is>
-          <t>Корпус</t>
-        </is>
-      </c>
-      <c r="L13" s="35" t="n">
+      <c r="J14" s="45" t="inlineStr">
+        <is>
+          <t>746119.301</t>
+        </is>
+      </c>
+      <c r="K14" s="45" t="inlineStr">
+        <is>
+          <t>Уголок</t>
+        </is>
+      </c>
+      <c r="L14" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="39" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="38" t="n"/>
-      <c r="C14" s="38" t="n"/>
-      <c r="D14" s="38" t="n"/>
-      <c r="E14" s="38" t="n"/>
-      <c r="F14" s="39" t="n"/>
-      <c r="G14" s="39" t="n"/>
-      <c r="H14" s="39" t="n"/>
-      <c r="I14" s="35" t="inlineStr">
+      <c r="M14" s="45" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="32">
+      <c r="A15" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="41" t="n"/>
+      <c r="C15" s="41" t="n"/>
+      <c r="D15" s="41" t="n"/>
+      <c r="E15" s="41" t="n"/>
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="40" t="n"/>
+      <c r="H15" s="40" t="n"/>
+      <c r="I15" s="45" t="inlineStr">
         <is>
           <t>БТЛИ.</t>
         </is>
       </c>
-      <c r="J14" s="35" t="inlineStr">
-        <is>
-          <t>305136.005</t>
-        </is>
-      </c>
-      <c r="K14" s="35" t="inlineStr">
-        <is>
-          <t>Корпус</t>
-        </is>
-      </c>
-      <c r="L14" s="35" t="n">
+      <c r="J15" s="45" t="inlineStr">
+        <is>
+          <t>754342.657</t>
+        </is>
+      </c>
+      <c r="K15" s="45" t="inlineStr">
+        <is>
+          <t>Табличка</t>
+        </is>
+      </c>
+      <c r="L15" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="39" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="31">
-      <c r="A15" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="38" t="n"/>
-      <c r="C15" s="38" t="n"/>
-      <c r="D15" s="38" t="n"/>
-      <c r="E15" s="38" t="n"/>
-      <c r="F15" s="39" t="n"/>
-      <c r="G15" s="39" t="n"/>
-      <c r="H15" s="39" t="n"/>
-      <c r="I15" s="35" t="inlineStr">
+      <c r="M15" s="45" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="41" t="n"/>
+      <c r="C16" s="41" t="n"/>
+      <c r="D16" s="41" t="n"/>
+      <c r="E16" s="41" t="n"/>
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="40" t="n"/>
+      <c r="H16" s="40" t="n"/>
+      <c r="I16" s="45" t="inlineStr">
         <is>
           <t>БТЛИ.</t>
         </is>
       </c>
-      <c r="J15" s="35" t="inlineStr">
-        <is>
-          <t>305136.005СБ</t>
-        </is>
-      </c>
-      <c r="K15" s="35" t="inlineStr">
-        <is>
-          <t>Корпус</t>
-        </is>
-      </c>
-      <c r="L15" s="35" t="n">
+      <c r="J16" s="45" t="inlineStr">
+        <is>
+          <t>754342.658 СБ</t>
+        </is>
+      </c>
+      <c r="K16" s="45" t="inlineStr">
+        <is>
+          <t>Табличка</t>
+        </is>
+      </c>
+      <c r="L16" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" s="45" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="32">
+      <c r="A17" s="46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="39" t="n"/>
+      <c r="C17" s="39" t="n"/>
+      <c r="D17" s="39" t="n"/>
+      <c r="E17" s="39" t="n"/>
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="40" t="n"/>
+      <c r="H17" s="40" t="n"/>
+      <c r="I17" s="46" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J17" s="46" t="inlineStr">
+        <is>
+          <t>757445.468</t>
+        </is>
+      </c>
+      <c r="K17" s="46" t="inlineStr">
+        <is>
+          <t>Провод 
+заземления</t>
+        </is>
+      </c>
+      <c r="L17" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="39" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="40" t="n"/>
-      <c r="C16" s="40" t="n"/>
-      <c r="D16" s="40" t="n"/>
-      <c r="E16" s="40" t="n"/>
-      <c r="F16" s="39" t="n"/>
-      <c r="G16" s="39" t="n"/>
-      <c r="H16" s="39" t="n"/>
-      <c r="I16" s="35" t="inlineStr">
-        <is>
-          <t>БТЛИ.</t>
-        </is>
-      </c>
-      <c r="J16" s="35" t="inlineStr">
-        <is>
-          <t>305136.005СБ</t>
-        </is>
-      </c>
-      <c r="K16" s="35" t="inlineStr">
-        <is>
-          <t>Корпус</t>
-        </is>
-      </c>
-      <c r="L16" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="39" t="n"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="31"/>
-    <row r="18" ht="15.75" customHeight="1" s="31"/>
+      <c r="M17" s="46" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="32"/>
     <row r="19"/>
-    <row r="20"/>
-    <row r="21">
-      <c r="D21" s="9" t="inlineStr">
+    <row r="20" ht="15.75" customHeight="1" s="32"/>
+    <row r="21" ht="15.75" customHeight="1" s="32"/>
+    <row r="22"/>
+    <row r="23" ht="15.75" customHeight="1" s="32"/>
+    <row r="24" ht="15.75" customHeight="1" s="32"/>
+    <row r="25"/>
+    <row r="26" ht="15.75" customHeight="1" s="32"/>
+    <row r="27" ht="15.75" customHeight="1" s="32"/>
+    <row r="28"/>
+    <row r="29" ht="15.75" customHeight="1" s="32"/>
+    <row r="30" ht="15.75" customHeight="1" s="32"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>Руководитель группы</t>
         </is>
       </c>
-      <c r="E21" s="14" t="n"/>
-      <c r="F21" s="14" t="n"/>
-      <c r="G21" s="14" t="n"/>
-      <c r="H21" s="9" t="inlineStr">
+      <c r="E34" s="14" t="n"/>
+      <c r="F34" s="14" t="n"/>
+      <c r="G34" s="14" t="n"/>
+      <c r="H34" s="9" t="inlineStr">
         <is>
           <t>Р.С. Уфрутов</t>
         </is>
       </c>
-      <c r="I21" s="14" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="I34" s="14" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="14" t="n"/>
+      <c r="E35" s="14" t="n"/>
+      <c r="F35" s="14" t="n"/>
+      <c r="G35" s="14" t="n"/>
+      <c r="H35" s="14" t="n"/>
+      <c r="I35" s="14" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
         <is>
           <t>Исп. Петров А.И.</t>
         </is>
       </c>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n"/>
-      <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
-      <c r="L23" s="1" t="n"/>
-      <c r="M23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
-      <c r="H24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
-      <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
-      <c r="L24" s="1" t="n"/>
-      <c r="M24" s="15" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="15" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="32">
     <mergeCell ref="D4:J6"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="E11:E16"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="55"/>

--- a/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
+++ b/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -125,6 +125,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,21 +645,19 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>52НН/ /6-646</t>
+          <t>52НН/213123/6-646</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>44735.69710035139</v>
+        <v>44736.65805711456</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
           <t>ЭОДЦН-8200/10-У3</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>330515/1</t>
-        </is>
+      <c r="E11" s="3" t="n">
+        <v>12312</v>
       </c>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
@@ -670,20 +669,20 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>754342.658 СБ</t>
+          <t>685631.001 СБ</t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>Табличка</t>
+          <t xml:space="preserve">Перемычка заземления </t>
         </is>
       </c>
       <c r="L11" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
@@ -705,53 +704,263 @@
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
+          <t>687321.338</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>Монтаж контрольных кабелей</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>687321.338 СБ</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Монтаж контрольных кабелей </t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>745391.033</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>Скоба</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>746119.301</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>Уголок</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>754342.657</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>Табличка</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>754342.658 СБ</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>Табличка</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>БТЛИ.</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
           <t>757445.468</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>Провод  заземления</t>
         </is>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="D18" s="1" t="inlineStr">
+    <row r="24">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>Руководитель группы</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J24" s="1" t="inlineStr">
         <is>
           <t>Уфрутов Р.С.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" s="1" t="inlineStr">
+    <row r="26">
+      <c r="D26" s="1" t="inlineStr">
         <is>
           <t>Исполнитель</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>Петров А.И.</t>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>we</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="E11:E18"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D4:J7"/>
   </mergeCells>

--- a/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
+++ b/Заполнение служебной записки/Служебная записка на обработку и размножение чертежей.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Служебка" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Служебная записка" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M26"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,11 +645,11 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>52НН/213123/6-646</t>
+          <t>52НН/2/6-646</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>44736.65805711456</v>
+        <v>44742.50470660644</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>12312</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
@@ -669,12 +669,12 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>685631.001 СБ</t>
+          <t>746119.301</t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Перемычка заземления </t>
+          <t>Уголок</t>
         </is>
       </c>
       <c r="L11" s="3" t="n">
@@ -682,7 +682,7 @@
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
     </row>
@@ -704,20 +704,20 @@
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>687321.338</t>
+          <t>754342.657</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>Монтаж контрольных кабелей</t>
+          <t>Табличка</t>
         </is>
       </c>
       <c r="L12" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
@@ -739,20 +739,20 @@
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>687321.338 СБ</t>
+          <t>754342.658 СБ</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Монтаж контрольных кабелей </t>
+          <t>Табличка</t>
         </is>
       </c>
       <c r="L13" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
       <c r="A14" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
+      <c r="B14" s="8" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="n"/>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
@@ -774,12 +774,12 @@
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>745391.033</t>
+          <t>757445.468</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>Скоба</t>
+          <t>Провод  заземления</t>
         </is>
       </c>
       <c r="L14" s="3" t="n">
@@ -791,176 +791,36 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>БТЛИ.</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>746119.301</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>Уголок</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="6" t="n"/>
-      <c r="G16" s="6" t="n"/>
-      <c r="H16" s="6" t="n"/>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>БТЛИ.</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>754342.657</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>Табличка</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="6" t="n"/>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>БТЛИ.</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>754342.658 СБ</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>Табличка</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>БТЛИ.</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>757445.468</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>Провод  заземления</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" s="1" t="inlineStr">
+    <row r="20">
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>Руководитель группы</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J20" s="1" t="inlineStr">
         <is>
           <t>Уфрутов Р.С.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="D26" s="1" t="inlineStr">
+    <row r="22">
+      <c r="D22" s="1" t="inlineStr">
         <is>
           <t>Исполнитель</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>dfv</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="D4:J7"/>
   </mergeCells>
